--- a/similarities/split_global/harmonic_similarity_timestamps_51.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_51.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,678 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G', 'C', 'G', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.967000', '0:00:16.743000')]</t>
+          <t>('0:00:00.344657', '0:00:14.158934')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.426857', '0:00:03.509464')]</t>
+          <t>('0:00:15.216000', '0:00:34.866000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-39#t=0.426857']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3', 'A:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:12.446000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:26.980000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:58.265237', '0:01:07.100430')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:06.950000', '0:00:14.410000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:37.760000', '0:01:49.380000')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E/3', 'A:min', 'F']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.900000', '0:00:11.120000')]</t>
+          <t>('0:00:02.360000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:12.579000', '0:00:17.703000')]</t>
+          <t>('0:00:10.440000', '0:00:29.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=6.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=10.44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D', 'G', 'D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:20.852000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:29.679679', '0:00:41.637956')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=29.679679']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
+          <t>['C', 'D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['D', 'E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:38.689000', '0:00:45.633000')]</t>
+          <t>('0:01:02.270000', '0:01:09.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:05.420000', '0:00:12.580000')]</t>
+          <t>('0:00:30.105000', '0:00:39.805000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=62.27</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=5.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=30.105</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:12.921927', '0:00:21.908049')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_243</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:19.616133', '0:00:25.815861')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-243#t=19.616133</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:04.155032', '0:00:07.525011')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:13.740000', '0:01:27.340000')]</t>
+          <t>('0:00:00.240000', '0:00:08.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.820000', '0:00:17.090000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=9.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.505864')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.200000', '0:00:12.940000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
